--- a/libraries/interop_services/tests/data/input/excel/cfi-20210507-current.xlsx
+++ b/libraries/interop_services/tests/data/input/excel/cfi-20210507-current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S\bclearer_projects\financial_instruments\01_collect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S\bclearer\ol_bclearer_sdk\libraries\interop_services\tests\data\input\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C2242E-AA40-4AB8-A34B-7938E9C6C4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629FC91C-1982-41F8-9947-C84305BBD1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46695" yWindow="0" windowWidth="29010" windowHeight="15585" tabRatio="817" firstSheet="7" activeTab="91" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40620" yWindow="0" windowWidth="20985" windowHeight="15585" tabRatio="817" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -10332,7 +10332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10694,6 +10694,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13156,7 +13159,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20633,7 +20636,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24521,8 +24524,8 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24551,7 +24554,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="124" t="s">
         <v>118</v>
       </c>
       <c r="B2" s="8"/>
@@ -24566,6 +24569,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="124"/>
       <c r="B3" s="10" t="s">
         <v>121</v>
       </c>
@@ -24580,6 +24584,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="124"/>
       <c r="B4" s="10" t="s">
         <v>125</v>
       </c>
@@ -24594,6 +24599,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="124"/>
       <c r="B5" s="10" t="s">
         <v>24</v>
       </c>
@@ -24608,6 +24614,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="124"/>
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
@@ -24622,7 +24629,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="124" t="s">
         <v>135</v>
       </c>
       <c r="B7" s="8"/>
@@ -24637,6 +24644,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="124"/>
       <c r="B8" s="10" t="s">
         <v>67</v>
       </c>
@@ -24651,6 +24659,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="124"/>
       <c r="B9" s="10" t="s">
         <v>115</v>
       </c>
@@ -24665,7 +24674,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="124" t="s">
         <v>143</v>
       </c>
       <c r="B10" s="8"/>
@@ -24680,6 +24689,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="124"/>
       <c r="B11" s="10" t="s">
         <v>29</v>
       </c>
@@ -24694,6 +24704,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="124"/>
       <c r="B12" s="10" t="s">
         <v>86</v>
       </c>
@@ -24708,6 +24719,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="124"/>
       <c r="B13" s="10" t="s">
         <v>33</v>
       </c>
@@ -24722,7 +24734,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="124" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="8"/>
@@ -24737,6 +24749,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="124"/>
       <c r="B15" s="10" t="s">
         <v>156</v>
       </c>
@@ -24751,6 +24764,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="124"/>
       <c r="B16" s="10" t="s">
         <v>24</v>
       </c>
@@ -24764,7 +24778,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="124"/>
       <c r="B17" s="10" t="s">
         <v>125</v>
       </c>
@@ -24778,7 +24793,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="124"/>
       <c r="B18" s="10" t="s">
         <v>72</v>
       </c>
@@ -24792,32 +24808,38 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" s="51" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" s="52"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="52"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="52"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="52"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="52"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A18"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C20" location="Equities_Category!A1" display="Return to Equities_Category Category" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="C22" location="Categories!A1" display="Return to Categories" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
@@ -31486,7 +31508,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41296,8 +41318,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
